--- a/Data/Victimas.xlsx
+++ b/Data/Victimas.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -1961,17 +1961,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -3633,12 +3633,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -4125,12 +4125,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="I123" t="n">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -6263,17 +6263,17 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -7313,12 +7313,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -8955,12 +8955,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -9475,12 +9475,12 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -10497,7 +10497,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -10779,7 +10779,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -11843,12 +11843,12 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
     </row>
@@ -16245,7 +16245,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MASCULINO</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
